--- a/public/wiat_locations.xlsx
+++ b/public/wiat_locations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PhpstormProjects\wiat_front\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3637F3C9-3698-4056-BD31-1842C65632D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6131B01D-F360-4A27-8564-AA44BF481A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{60B8F55B-90B2-41A0-953E-FD593A0D51DC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Latitude</t>
   </si>
@@ -76,13 +76,24 @@
   </si>
   <si>
     <t>Add as many suppliers (Name, Latitude, Longitude) as needed to the right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSTRUCTIONS: </t>
+  </si>
+  <si>
+    <t>Add the assessments you want to add to the tool on the first sheet.
+ If the name of any assessment coincides with an existing one, the latter (along with its industries) will be deleted.</t>
+  </si>
+  <si>
+    <t>In the industries tab, define the industries you want to add, together 
+with the assessment to which it belongs. This assessment does not have to be defined in the assessment sheet, it can be previously defined in the web tool.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +111,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -190,6 +209,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -197,7 +255,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -235,6 +293,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -553,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155DBE8A-0346-4315-8D01-639509365F15}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,26 +632,26 @@
     <col min="2" max="2" width="14.54296875" customWidth="1"/>
     <col min="3" max="3" width="13.08984375" customWidth="1"/>
     <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" customWidth="1"/>
-    <col min="9" max="9" width="10.1796875" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" customWidth="1"/>
+    <col min="5" max="5" width="57.7265625" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -595,9 +662,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
+      <c r="E4" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E6" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -605,6 +685,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/public/wiat_locations.xlsx
+++ b/public/wiat_locations.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PhpstormProjects\wiat_front\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\Desktop\ICRA\WIAT_front\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6131B01D-F360-4A27-8564-AA44BF481A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9632AB-DE68-40CE-B757-EAE945BD5684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{60B8F55B-90B2-41A0-953E-FD593A0D51DC}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="8710" xr2:uid="{60B8F55B-90B2-41A0-953E-FD593A0D51DC}"/>
   </bookViews>
   <sheets>
     <sheet name="ASSESSMENTS" sheetId="1" r:id="rId1"/>
-    <sheet name="INDUSTRIES" sheetId="2" r:id="rId2"/>
+    <sheet name="SITES" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,15 +45,9 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>INDUSTRY</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
-    <t xml:space="preserve">Industry </t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -72,20 +66,26 @@
     <t>End</t>
   </si>
   <si>
-    <t>SUPPLIERS</t>
-  </si>
-  <si>
-    <t>Add as many suppliers (Name, Latitude, Longitude) as needed to the right</t>
-  </si>
-  <si>
     <t xml:space="preserve">INSTRUCTIONS: </t>
   </si>
   <si>
+    <t xml:space="preserve">Site </t>
+  </si>
+  <si>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>SUB-SUPPLIERS</t>
+  </si>
+  <si>
+    <t>Add as many sub-suppliers (Name, Latitude, Longitude) as needed to the right</t>
+  </si>
+  <si>
     <t>Add the assessments you want to add to the tool on the first sheet.
- If the name of any assessment coincides with an existing one, the latter (along with its industries) will be deleted.</t>
-  </si>
-  <si>
-    <t>In the industries tab, define the industries you want to add, together 
+ If the name of any assessment coincides with an existing one, the latter (along with its sites) will be deleted.</t>
+  </si>
+  <si>
+    <t>In the sites tab, define the industries you want to add,  
 with the assessment to which it belongs. This assessment does not have to be defined in the assessment sheet, it can be previously defined in the web tool.</t>
   </si>
 </sst>
@@ -264,36 +264,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -302,6 +272,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -623,7 +623,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -638,44 +638,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4"/>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="E4" s="14" t="s">
-        <v>13</v>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E6" s="16" t="s">
+    <row r="6" spans="1:5" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -694,49 +694,49 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
+      <c r="C2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>0</v>
